--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_9.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_0</t>
+          <t>model_6_9_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2304671916459294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1768808165800588</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.04420886564384485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.08688148562427289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8516460657119751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.420858263969421</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.736180067062378</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.569245219230652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_22</t>
+          <t>model_6_9_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2312253711294555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1812789445634206</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.03507737528146171</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.09337827305343283</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8508070111274719</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.413266181945801</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.720997333526611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.558079957962036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_21</t>
+          <t>model_6_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2375054988532181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2064208633940718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01916077088540757</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.113993212236509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8438567519187927</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.369866609573364</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.694533109664917</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.52265202999115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_20</t>
+          <t>model_6_9_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2386122376102731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1903529386520749</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.03040041255157755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1003317099604351</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8426318764686584</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.397602796554565</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.713220953941345</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.546130061149597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_19</t>
+          <t>model_6_9_24</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2447185745659718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1965481154384218</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01814805844272427</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1092051759614291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8358739614486694</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.386908769607544</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.692849397659302</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.530880451202393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_18</t>
+          <t>model_6_9_23</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2448761140652409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1964323456909794</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01724626961785591</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1095523574561462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8356996178627014</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.387108683586121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.691349983215332</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.53028392791748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_17</t>
+          <t>model_6_9_21</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.244942555645197</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1959589690371648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01628565271234672</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1097395418563395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8356261253356934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.387925744056702</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.689752817153931</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.529962182044983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_16</t>
+          <t>model_6_9_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.244957812137559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1963262724411134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01670416060518476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1097445670310526</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8356092572212219</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.387291669845581</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.690448522567749</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.529953718185425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_15</t>
+          <t>model_6_9_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2459851130459003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.1998225203991028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.0158157902535101</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.112006434716584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8344722986221313</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.381256461143494</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.688971519470215</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.526066541671753</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_14</t>
+          <t>model_6_9_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2463144344173652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2003403041868755</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.0145489225970401</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1128601625951433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8341078758239746</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.380362749099731</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.686865091323853</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.524599194526672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_13</t>
+          <t>model_6_9_16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2463763002364324</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2004119249671358</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01427217060682895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1130243338581149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8340393900871277</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.380239009857178</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.686404943466187</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.524317145347595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_23</t>
+          <t>model_6_9_19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2465027709634792</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2009400648713141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01460456569716362</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1131538639162211</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8338994383811951</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.379327416419983</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.686957597732544</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.524094581604004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_12</t>
+          <t>model_6_9_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.246547375131117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2007666843863244</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01329349373889022</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1136568606644398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8338499665260315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.379626870155334</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.684777736663818</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.523230075836182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_10</t>
+          <t>model_6_9_18</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2465857823437831</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2008554402768146</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01389551187538207</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1134315532356887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8338075280189514</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.379473447799683</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.685778737068176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.523617386817932</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_9</t>
+          <t>model_6_9_8</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2469330739962197</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2062586041403173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01374505112369162</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1163728089010269</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8334231972694397</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.370146632194519</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.685528516769409</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.51856255531311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_8</t>
+          <t>model_6_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2474012226905242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2030929366147158</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01246950895297316</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1152706736812906</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.832905113697052</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.375611186027527</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.683407664299011</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.520456790924072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_7</t>
+          <t>model_6_9_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2475305910927309</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2037685088805898</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01221762055329956</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1157447966895644</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8327618837356567</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.374445080757141</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.682988882064819</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.519641876220703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_6</t>
+          <t>model_6_9_12</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2475482963712199</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2047267224064254</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01291860463166561</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1159350010696888</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8327422738075256</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.372790932655334</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.684154510498047</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.519314885139465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_5</t>
+          <t>model_6_9_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2490782081484925</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2101481564039916</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.009985159103707231</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1201534330854377</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8310491442680359</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.36343252658844</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.679277062416077</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.512065291404724</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_4</t>
+          <t>model_6_9_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2491347606798847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2103452026468442</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01126016228445526</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1196777627068077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8309865593910217</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.363092541694641</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.681396961212158</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.512882828712463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_3</t>
+          <t>model_6_9_11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2491794903960163</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.2104448138404922</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8923372643289331</v>
+        <v>-0.01122819740653269</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.1197459418427569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.8309370875358582</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.36292040348053</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.681343793869019</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.512765645980835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_2</t>
+          <t>model_6_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2839872291672964</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.3043525491180613</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8923372643289331</v>
+        <v>0.09885820857994332</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.219802800872584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7924151420593262</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.200818061828613</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.498306035995483</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.3408123254776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_1</t>
+          <t>model_6_9_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.2937639237727891</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.429562355835966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8923372643289331</v>
+        <v>0.4423156606101083</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.4427549617416759</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7815952301025391</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1118424087762833</v>
+        <v>0.9846825003623962</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1928722411394119</v>
+        <v>0.9272478222846985</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1499740928411484</v>
+        <v>0.9576566219329834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_11</t>
+          <t>model_6_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.294081177892726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.4285824535620977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8923372643289331</v>
+        <v>0.4409662566835698</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.4416207748916733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.781244158744812</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1118424087762833</v>
+        <v>0.9863739013671875</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1928722411394119</v>
+        <v>0.929491400718689</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1499740928411484</v>
+        <v>0.9596056938171387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_24</t>
+          <t>model_6_9_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3096338858669928</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8981833942433929</v>
+        <v>0.3791921348033127</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8923372643289331</v>
+        <v>0.2456399293095876</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8960666045587107</v>
+        <v>0.3264273092451718</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7640318274497986</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1118424087762833</v>
+        <v>1.071630835533142</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1928722411394119</v>
+        <v>1.254255652427673</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1499740928411484</v>
+        <v>1.157572269439697</v>
       </c>
     </row>
   </sheetData>
